--- a/output/table/league2021_summary.xlsx
+++ b/output/table/league2021_summary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easyu\ohtani_analyze\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CF201DD0-3A92-4610-98C1-E3A0D64E765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="league2021_summary" sheetId="1" r:id="rId1"/>
@@ -165,8 +164,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode=".000"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode=".000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -799,19 +798,19 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,9 +1177,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1841,16 +1840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="36.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>-5.28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="C2:C10">
@@ -2206,22 +2205,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="10" max="11" width="6.5" customWidth="1"/>
     <col min="12" max="12" width="6.25" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
-    <col min="14" max="14" width="7.125" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.08203125" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="N2" s="3">
-        <v>23.2</v>
+        <v>44.3</v>
       </c>
       <c r="O2" s="4">
         <v>0.35399999999999998</v>
@@ -2321,7 +2320,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="N3" s="3">
-        <v>22.7</v>
+        <v>33.4</v>
       </c>
       <c r="O3" s="4">
         <v>0.28399999999999997</v>
@@ -2371,7 +2370,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="N4" s="3">
-        <v>26.9</v>
+        <v>41.7</v>
       </c>
       <c r="O4" s="4">
         <v>0.35799999999999998</v>
@@ -2421,7 +2420,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>5.4</v>
       </c>
       <c r="N5" s="3">
-        <v>22.6</v>
+        <v>32.6</v>
       </c>
       <c r="O5" s="4">
         <v>0.30499999999999999</v>
@@ -2471,7 +2470,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>5.9</v>
       </c>
       <c r="N6" s="3">
-        <v>23.1</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="O6" s="4">
         <v>0.27800000000000002</v>
@@ -2521,7 +2520,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>7.5</v>
       </c>
       <c r="N7" s="3">
-        <v>23.5</v>
+        <v>35.9</v>
       </c>
       <c r="O7" s="4">
         <v>0.33600000000000002</v>
@@ -2571,7 +2570,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>3.4</v>
       </c>
       <c r="N8" s="3">
-        <v>25.6</v>
+        <v>37.9</v>
       </c>
       <c r="O8" s="4">
         <v>0.26500000000000001</v>
@@ -2621,7 +2620,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N9" s="3">
-        <v>23</v>
+        <v>32.6</v>
       </c>
       <c r="O9" s="4">
         <v>0.247</v>
@@ -2671,7 +2670,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>6.7</v>
       </c>
       <c r="N10" s="6">
-        <v>33.299999999999997</v>
+        <v>60</v>
       </c>
       <c r="O10" s="7">
         <v>0.70299999999999996</v>
@@ -2721,7 +2720,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:16" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="C2:C10">
